--- a/data/Web_MEM_MGU/2023_08_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2023_08_mem_mgu.xlsx
@@ -2157,7 +2157,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1690848000</v>
+        <v>1690837200</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1690851600</v>
+        <v>1690840800</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1690855200</v>
+        <v>1690844400</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1690858800</v>
+        <v>1690848000</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1690862400</v>
+        <v>1690851600</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1690866000</v>
+        <v>1690855200</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1690869600</v>
+        <v>1690858800</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1690873200</v>
+        <v>1690862400</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1690876800</v>
+        <v>1690866000</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1690880400</v>
+        <v>1690869600</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1690884000</v>
+        <v>1690873200</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1690887600</v>
+        <v>1690876800</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1690891200</v>
+        <v>1690880400</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1690894800</v>
+        <v>1690884000</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1690898400</v>
+        <v>1690887600</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1690902000</v>
+        <v>1690891200</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1690905600</v>
+        <v>1690894800</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1690909200</v>
+        <v>1690898400</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1690912800</v>
+        <v>1690902000</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1690916400</v>
+        <v>1690905600</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1690920000</v>
+        <v>1690909200</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1690923600</v>
+        <v>1690912800</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1690923600</v>
+        <v>1690912800</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1690927200</v>
+        <v>1690916400</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1690930800</v>
+        <v>1690920000</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1690934400</v>
+        <v>1690923600</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1690938000</v>
+        <v>1690927200</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1690941600</v>
+        <v>1690930800</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1690945200</v>
+        <v>1690934400</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1690948800</v>
+        <v>1690938000</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1690952400</v>
+        <v>1690941600</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1690956000</v>
+        <v>1690945200</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1690959600</v>
+        <v>1690948800</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1690963200</v>
+        <v>1690952400</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1690966800</v>
+        <v>1690956000</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1690970400</v>
+        <v>1690959600</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1690974000</v>
+        <v>1690963200</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1690977600</v>
+        <v>1690966800</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1690981200</v>
+        <v>1690970400</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1690984800</v>
+        <v>1690974000</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1690988400</v>
+        <v>1690977600</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1690992000</v>
+        <v>1690981200</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1690995600</v>
+        <v>1690984800</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1690999200</v>
+        <v>1690988400</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1691002800</v>
+        <v>1690992000</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1691006400</v>
+        <v>1690995600</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1691010000</v>
+        <v>1690999200</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1691013600</v>
+        <v>1691002800</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1691017200</v>
+        <v>1691006400</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1691020800</v>
+        <v>1691010000</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1691024400</v>
+        <v>1691013600</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1691028000</v>
+        <v>1691017200</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1691031600</v>
+        <v>1691020800</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1691035200</v>
+        <v>1691024400</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1691038800</v>
+        <v>1691028000</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1691042400</v>
+        <v>1691031600</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1691046000</v>
+        <v>1691035200</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1691049600</v>
+        <v>1691038800</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1691053200</v>
+        <v>1691042400</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1691056800</v>
+        <v>1691046000</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1691060400</v>
+        <v>1691049600</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1691064000</v>
+        <v>1691053200</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1691067600</v>
+        <v>1691056800</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1691071200</v>
+        <v>1691060400</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1691074800</v>
+        <v>1691064000</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1691078400</v>
+        <v>1691067600</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1691082000</v>
+        <v>1691071200</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1691085600</v>
+        <v>1691074800</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1691089200</v>
+        <v>1691078400</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1691092800</v>
+        <v>1691082000</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1691096400</v>
+        <v>1691085600</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1691100000</v>
+        <v>1691089200</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1691103600</v>
+        <v>1691092800</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1691107200</v>
+        <v>1691096400</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1691110800</v>
+        <v>1691100000</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1691114400</v>
+        <v>1691103600</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1691118000</v>
+        <v>1691107200</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1691121600</v>
+        <v>1691110800</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1691125200</v>
+        <v>1691114400</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1691128800</v>
+        <v>1691118000</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1691132400</v>
+        <v>1691121600</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1691136000</v>
+        <v>1691125200</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1691139600</v>
+        <v>1691128800</v>
       </c>
       <c r="B84" t="s">
         <v>91</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1691049600</v>
+        <v>1691038800</v>
       </c>
       <c r="B85" t="s">
         <v>66</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1691085600</v>
+        <v>1691074800</v>
       </c>
       <c r="B86" t="s">
         <v>76</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1691143200</v>
+        <v>1691132400</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1691146800</v>
+        <v>1691136000</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1691150400</v>
+        <v>1691139600</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1691154000</v>
+        <v>1691143200</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1691157600</v>
+        <v>1691146800</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1691161200</v>
+        <v>1691150400</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1691164800</v>
+        <v>1691154000</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1691168400</v>
+        <v>1691157600</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1691172000</v>
+        <v>1691161200</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1691175600</v>
+        <v>1691164800</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1691179200</v>
+        <v>1691168400</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1691182800</v>
+        <v>1691172000</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1691182800</v>
+        <v>1691172000</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1691186400</v>
+        <v>1691175600</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1691190000</v>
+        <v>1691179200</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1691193600</v>
+        <v>1691182800</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1691197200</v>
+        <v>1691186400</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1691200800</v>
+        <v>1691190000</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1691204400</v>
+        <v>1691193600</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1691208000</v>
+        <v>1691197200</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1691211600</v>
+        <v>1691200800</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1691215200</v>
+        <v>1691204400</v>
       </c>
       <c r="B108" t="s">
         <v>112</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1691218800</v>
+        <v>1691208000</v>
       </c>
       <c r="B109" t="s">
         <v>113</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1691222400</v>
+        <v>1691211600</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1691226000</v>
+        <v>1691215200</v>
       </c>
       <c r="B111" t="s">
         <v>115</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1691229600</v>
+        <v>1691218800</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1691233200</v>
+        <v>1691222400</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1691236800</v>
+        <v>1691226000</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1691240400</v>
+        <v>1691229600</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1691244000</v>
+        <v>1691233200</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1691247600</v>
+        <v>1691236800</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1691251200</v>
+        <v>1691240400</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1691254800</v>
+        <v>1691244000</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1691258400</v>
+        <v>1691247600</v>
       </c>
       <c r="B120" t="s">
         <v>124</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1691262000</v>
+        <v>1691251200</v>
       </c>
       <c r="B121" t="s">
         <v>125</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1691265600</v>
+        <v>1691254800</v>
       </c>
       <c r="B122" t="s">
         <v>126</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1691269200</v>
+        <v>1691258400</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1691272800</v>
+        <v>1691262000</v>
       </c>
       <c r="B124" t="s">
         <v>128</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1691276400</v>
+        <v>1691265600</v>
       </c>
       <c r="B125" t="s">
         <v>129</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1691280000</v>
+        <v>1691269200</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1691283600</v>
+        <v>1691272800</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1691283600</v>
+        <v>1691272800</v>
       </c>
       <c r="B128" t="s">
         <v>131</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1691287200</v>
+        <v>1691276400</v>
       </c>
       <c r="B129" t="s">
         <v>132</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1691287200</v>
+        <v>1691276400</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1691290800</v>
+        <v>1691280000</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1691290800</v>
+        <v>1691280000</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1691294400</v>
+        <v>1691283600</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1691294400</v>
+        <v>1691283600</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1691298000</v>
+        <v>1691287200</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1691301600</v>
+        <v>1691290800</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1691305200</v>
+        <v>1691294400</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1691308800</v>
+        <v>1691298000</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1691312400</v>
+        <v>1691301600</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1691316000</v>
+        <v>1691305200</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1691319600</v>
+        <v>1691308800</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1691323200</v>
+        <v>1691312400</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1691326800</v>
+        <v>1691316000</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1691330400</v>
+        <v>1691319600</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1691334000</v>
+        <v>1691323200</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1691337600</v>
+        <v>1691326800</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1691341200</v>
+        <v>1691330400</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1691344800</v>
+        <v>1691334000</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1691348400</v>
+        <v>1691337600</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1691352000</v>
+        <v>1691341200</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1691355600</v>
+        <v>1691344800</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1691359200</v>
+        <v>1691348400</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1691362800</v>
+        <v>1691352000</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1691366400</v>
+        <v>1691355600</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1691370000</v>
+        <v>1691359200</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1691373600</v>
+        <v>1691362800</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1691377200</v>
+        <v>1691366400</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1691380800</v>
+        <v>1691370000</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1691384400</v>
+        <v>1691373600</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1691388000</v>
+        <v>1691377200</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1691391600</v>
+        <v>1691380800</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1691395200</v>
+        <v>1691384400</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1691398800</v>
+        <v>1691388000</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1691402400</v>
+        <v>1691391600</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1691406000</v>
+        <v>1691395200</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1691409600</v>
+        <v>1691398800</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1691413200</v>
+        <v>1691402400</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1691416800</v>
+        <v>1691406000</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1691420400</v>
+        <v>1691409600</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1691424000</v>
+        <v>1691413200</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1691427600</v>
+        <v>1691416800</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1691431200</v>
+        <v>1691420400</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1691434800</v>
+        <v>1691424000</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1691438400</v>
+        <v>1691427600</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1691442000</v>
+        <v>1691431200</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1691445600</v>
+        <v>1691434800</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1691449200</v>
+        <v>1691438400</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1691452800</v>
+        <v>1691442000</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1691456400</v>
+        <v>1691445600</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1691460000</v>
+        <v>1691449200</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1691463600</v>
+        <v>1691452800</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1691467200</v>
+        <v>1691456400</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1691470800</v>
+        <v>1691460000</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1691474400</v>
+        <v>1691463600</v>
       </c>
       <c r="B184" t="s">
         <v>184</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1691478000</v>
+        <v>1691467200</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1691481600</v>
+        <v>1691470800</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1691485200</v>
+        <v>1691474400</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1691488800</v>
+        <v>1691478000</v>
       </c>
       <c r="B188" t="s">
         <v>188</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1691492400</v>
+        <v>1691481600</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1691496000</v>
+        <v>1691485200</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1691499600</v>
+        <v>1691488800</v>
       </c>
       <c r="B191" t="s">
         <v>191</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1691503200</v>
+        <v>1691492400</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1691506800</v>
+        <v>1691496000</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1691510400</v>
+        <v>1691499600</v>
       </c>
       <c r="B194" t="s">
         <v>194</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1691514000</v>
+        <v>1691503200</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1691517600</v>
+        <v>1691506800</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1691521200</v>
+        <v>1691510400</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1691524800</v>
+        <v>1691514000</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1691528400</v>
+        <v>1691517600</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1691532000</v>
+        <v>1691521200</v>
       </c>
       <c r="B200" t="s">
         <v>200</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1691535600</v>
+        <v>1691524800</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1691539200</v>
+        <v>1691528400</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1691542800</v>
+        <v>1691532000</v>
       </c>
       <c r="B203" t="s">
         <v>203</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1691546400</v>
+        <v>1691535600</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1691550000</v>
+        <v>1691539200</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1691553600</v>
+        <v>1691542800</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1691557200</v>
+        <v>1691546400</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1691560800</v>
+        <v>1691550000</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1691564400</v>
+        <v>1691553600</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1691568000</v>
+        <v>1691557200</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1691571600</v>
+        <v>1691560800</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1691575200</v>
+        <v>1691564400</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1691578800</v>
+        <v>1691568000</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1691582400</v>
+        <v>1691571600</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1691586000</v>
+        <v>1691575200</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1691589600</v>
+        <v>1691578800</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1691593200</v>
+        <v>1691582400</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1691596800</v>
+        <v>1691586000</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1691600400</v>
+        <v>1691589600</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1691604000</v>
+        <v>1691593200</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1691607600</v>
+        <v>1691596800</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1691611200</v>
+        <v>1691600400</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1691614800</v>
+        <v>1691604000</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1691618400</v>
+        <v>1691607600</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1691622000</v>
+        <v>1691611200</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1691625600</v>
+        <v>1691614800</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1691629200</v>
+        <v>1691618400</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1691632800</v>
+        <v>1691622000</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1691636400</v>
+        <v>1691625600</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1691640000</v>
+        <v>1691629200</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1691643600</v>
+        <v>1691632800</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1691647200</v>
+        <v>1691636400</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1691650800</v>
+        <v>1691640000</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1691654400</v>
+        <v>1691643600</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1691658000</v>
+        <v>1691647200</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1691661600</v>
+        <v>1691650800</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1691665200</v>
+        <v>1691654400</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1691668800</v>
+        <v>1691658000</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
@@ -9741,7 +9741,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1691672400</v>
+        <v>1691661600</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1691676000</v>
+        <v>1691665200</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
@@ -9805,7 +9805,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1691679600</v>
+        <v>1691668800</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1691683200</v>
+        <v>1691672400</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1691686800</v>
+        <v>1691676000</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
@@ -9901,7 +9901,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1691690400</v>
+        <v>1691679600</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1691694000</v>
+        <v>1691683200</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1691697600</v>
+        <v>1691686800</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1691701200</v>
+        <v>1691690400</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1691704800</v>
+        <v>1691694000</v>
       </c>
       <c r="B248" t="s">
         <v>248</v>
@@ -10061,7 +10061,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1691708400</v>
+        <v>1691697600</v>
       </c>
       <c r="B249" t="s">
         <v>249</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>1691712000</v>
+        <v>1691701200</v>
       </c>
       <c r="B250" t="s">
         <v>250</v>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>1691715600</v>
+        <v>1691704800</v>
       </c>
       <c r="B251" t="s">
         <v>251</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
-        <v>1691719200</v>
+        <v>1691708400</v>
       </c>
       <c r="B252" t="s">
         <v>252</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
-        <v>1691722800</v>
+        <v>1691712000</v>
       </c>
       <c r="B253" t="s">
         <v>253</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
-        <v>1691726400</v>
+        <v>1691715600</v>
       </c>
       <c r="B254" t="s">
         <v>254</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255">
-        <v>1691730000</v>
+        <v>1691719200</v>
       </c>
       <c r="B255" t="s">
         <v>255</v>
@@ -10285,7 +10285,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
-        <v>1691733600</v>
+        <v>1691722800</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
-        <v>1691737200</v>
+        <v>1691726400</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258">
-        <v>1691740800</v>
+        <v>1691730000</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259">
-        <v>1691744400</v>
+        <v>1691733600</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
-        <v>1691748000</v>
+        <v>1691737200</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
-        <v>1691751600</v>
+        <v>1691740800</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
-        <v>1691755200</v>
+        <v>1691744400</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263">
-        <v>1691758800</v>
+        <v>1691748000</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264">
-        <v>1691762400</v>
+        <v>1691751600</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265">
-        <v>1691766000</v>
+        <v>1691755200</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266">
-        <v>1691769600</v>
+        <v>1691758800</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>1691773200</v>
+        <v>1691762400</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
-        <v>1691776800</v>
+        <v>1691766000</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269">
-        <v>1691780400</v>
+        <v>1691769600</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270">
-        <v>1691784000</v>
+        <v>1691773200</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271">
-        <v>1691787600</v>
+        <v>1691776800</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272">
-        <v>1691787600</v>
+        <v>1691776800</v>
       </c>
       <c r="B272" t="s">
         <v>271</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>1691791200</v>
+        <v>1691780400</v>
       </c>
       <c r="B273" t="s">
         <v>272</v>
@@ -10861,7 +10861,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>1691791200</v>
+        <v>1691780400</v>
       </c>
       <c r="B274" t="s">
         <v>272</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>1691794800</v>
+        <v>1691784000</v>
       </c>
       <c r="B275" t="s">
         <v>273</v>
@@ -10925,7 +10925,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>1691798400</v>
+        <v>1691787600</v>
       </c>
       <c r="B276" t="s">
         <v>274</v>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>1691802000</v>
+        <v>1691791200</v>
       </c>
       <c r="B277" t="s">
         <v>275</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>1691805600</v>
+        <v>1691794800</v>
       </c>
       <c r="B278" t="s">
         <v>276</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>1691809200</v>
+        <v>1691798400</v>
       </c>
       <c r="B279" t="s">
         <v>277</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>1691812800</v>
+        <v>1691802000</v>
       </c>
       <c r="B280" t="s">
         <v>278</v>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>1691816400</v>
+        <v>1691805600</v>
       </c>
       <c r="B281" t="s">
         <v>279</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>1691820000</v>
+        <v>1691809200</v>
       </c>
       <c r="B282" t="s">
         <v>280</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>1691823600</v>
+        <v>1691812800</v>
       </c>
       <c r="B283" t="s">
         <v>281</v>
@@ -11181,7 +11181,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>1691827200</v>
+        <v>1691816400</v>
       </c>
       <c r="B284" t="s">
         <v>282</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>1691830800</v>
+        <v>1691820000</v>
       </c>
       <c r="B285" t="s">
         <v>283</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>1691834400</v>
+        <v>1691823600</v>
       </c>
       <c r="B286" t="s">
         <v>284</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>1691838000</v>
+        <v>1691827200</v>
       </c>
       <c r="B287" t="s">
         <v>285</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>1691841600</v>
+        <v>1691830800</v>
       </c>
       <c r="B288" t="s">
         <v>286</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>1691845200</v>
+        <v>1691834400</v>
       </c>
       <c r="B289" t="s">
         <v>287</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>1691848800</v>
+        <v>1691838000</v>
       </c>
       <c r="B290" t="s">
         <v>288</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291">
-        <v>1691852400</v>
+        <v>1691841600</v>
       </c>
       <c r="B291" t="s">
         <v>289</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292">
-        <v>1691856000</v>
+        <v>1691845200</v>
       </c>
       <c r="B292" t="s">
         <v>290</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293">
-        <v>1691859600</v>
+        <v>1691848800</v>
       </c>
       <c r="B293" t="s">
         <v>291</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294">
-        <v>1691863200</v>
+        <v>1691852400</v>
       </c>
       <c r="B294" t="s">
         <v>292</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295">
-        <v>1691866800</v>
+        <v>1691856000</v>
       </c>
       <c r="B295" t="s">
         <v>293</v>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296">
-        <v>1691870400</v>
+        <v>1691859600</v>
       </c>
       <c r="B296" t="s">
         <v>294</v>
@@ -11597,7 +11597,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297">
-        <v>1691874000</v>
+        <v>1691863200</v>
       </c>
       <c r="B297" t="s">
         <v>295</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298">
-        <v>1691877600</v>
+        <v>1691866800</v>
       </c>
       <c r="B298" t="s">
         <v>296</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299">
-        <v>1691881200</v>
+        <v>1691870400</v>
       </c>
       <c r="B299" t="s">
         <v>297</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300">
-        <v>1691884800</v>
+        <v>1691874000</v>
       </c>
       <c r="B300" t="s">
         <v>298</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301">
-        <v>1691884800</v>
+        <v>1691874000</v>
       </c>
       <c r="B301" t="s">
         <v>298</v>
@@ -11757,7 +11757,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302">
-        <v>1691888400</v>
+        <v>1691877600</v>
       </c>
       <c r="B302" t="s">
         <v>299</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303">
-        <v>1691888400</v>
+        <v>1691877600</v>
       </c>
       <c r="B303" t="s">
         <v>299</v>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304">
-        <v>1691892000</v>
+        <v>1691881200</v>
       </c>
       <c r="B304" t="s">
         <v>300</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305">
-        <v>1691892000</v>
+        <v>1691881200</v>
       </c>
       <c r="B305" t="s">
         <v>300</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306">
-        <v>1691895600</v>
+        <v>1691884800</v>
       </c>
       <c r="B306" t="s">
         <v>301</v>
@@ -11917,7 +11917,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307">
-        <v>1691895600</v>
+        <v>1691884800</v>
       </c>
       <c r="B307" t="s">
         <v>301</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308">
-        <v>1691899200</v>
+        <v>1691888400</v>
       </c>
       <c r="B308" t="s">
         <v>302</v>
@@ -11981,7 +11981,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309">
-        <v>1691899200</v>
+        <v>1691888400</v>
       </c>
       <c r="B309" t="s">
         <v>302</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310">
-        <v>1691902800</v>
+        <v>1691892000</v>
       </c>
       <c r="B310" t="s">
         <v>303</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311">
-        <v>1691906400</v>
+        <v>1691895600</v>
       </c>
       <c r="B311" t="s">
         <v>304</v>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312">
-        <v>1691906400</v>
+        <v>1691895600</v>
       </c>
       <c r="B312" t="s">
         <v>304</v>
@@ -12109,7 +12109,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313">
-        <v>1691910000</v>
+        <v>1691899200</v>
       </c>
       <c r="B313" t="s">
         <v>305</v>
@@ -12141,7 +12141,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314">
-        <v>1691913600</v>
+        <v>1691902800</v>
       </c>
       <c r="B314" t="s">
         <v>306</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315">
-        <v>1691917200</v>
+        <v>1691906400</v>
       </c>
       <c r="B315" t="s">
         <v>307</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316">
-        <v>1691920800</v>
+        <v>1691910000</v>
       </c>
       <c r="B316" t="s">
         <v>308</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317">
-        <v>1691924400</v>
+        <v>1691913600</v>
       </c>
       <c r="B317" t="s">
         <v>309</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318">
-        <v>1691928000</v>
+        <v>1691917200</v>
       </c>
       <c r="B318" t="s">
         <v>310</v>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319">
-        <v>1691931600</v>
+        <v>1691920800</v>
       </c>
       <c r="B319" t="s">
         <v>311</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320">
-        <v>1691935200</v>
+        <v>1691924400</v>
       </c>
       <c r="B320" t="s">
         <v>312</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321">
-        <v>1691938800</v>
+        <v>1691928000</v>
       </c>
       <c r="B321" t="s">
         <v>313</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322">
-        <v>1691942400</v>
+        <v>1691931600</v>
       </c>
       <c r="B322" t="s">
         <v>314</v>
@@ -12429,7 +12429,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323">
-        <v>1691946000</v>
+        <v>1691935200</v>
       </c>
       <c r="B323" t="s">
         <v>315</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324">
-        <v>1691949600</v>
+        <v>1691938800</v>
       </c>
       <c r="B324" t="s">
         <v>316</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325">
-        <v>1691953200</v>
+        <v>1691942400</v>
       </c>
       <c r="B325" t="s">
         <v>317</v>
@@ -12525,7 +12525,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326">
-        <v>1691956800</v>
+        <v>1691946000</v>
       </c>
       <c r="B326" t="s">
         <v>318</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327">
-        <v>1691960400</v>
+        <v>1691949600</v>
       </c>
       <c r="B327" t="s">
         <v>319</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328">
-        <v>1691964000</v>
+        <v>1691953200</v>
       </c>
       <c r="B328" t="s">
         <v>320</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329">
-        <v>1691967600</v>
+        <v>1691956800</v>
       </c>
       <c r="B329" t="s">
         <v>321</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330">
-        <v>1691971200</v>
+        <v>1691960400</v>
       </c>
       <c r="B330" t="s">
         <v>322</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331">
-        <v>1691974800</v>
+        <v>1691964000</v>
       </c>
       <c r="B331" t="s">
         <v>323</v>
@@ -12717,7 +12717,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>1691978400</v>
+        <v>1691967600</v>
       </c>
       <c r="B332" t="s">
         <v>324</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>1691982000</v>
+        <v>1691971200</v>
       </c>
       <c r="B333" t="s">
         <v>325</v>
@@ -12781,7 +12781,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>1691985600</v>
+        <v>1691974800</v>
       </c>
       <c r="B334" t="s">
         <v>326</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>1691989200</v>
+        <v>1691978400</v>
       </c>
       <c r="B335" t="s">
         <v>327</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>1691992800</v>
+        <v>1691982000</v>
       </c>
       <c r="B336" t="s">
         <v>328</v>
@@ -12877,7 +12877,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>1691996400</v>
+        <v>1691985600</v>
       </c>
       <c r="B337" t="s">
         <v>329</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>1692000000</v>
+        <v>1691989200</v>
       </c>
       <c r="B338" t="s">
         <v>330</v>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>1692003600</v>
+        <v>1691992800</v>
       </c>
       <c r="B339" t="s">
         <v>331</v>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>1692007200</v>
+        <v>1691996400</v>
       </c>
       <c r="B340" t="s">
         <v>332</v>
@@ -13005,7 +13005,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>1692010800</v>
+        <v>1692000000</v>
       </c>
       <c r="B341" t="s">
         <v>333</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>1692014400</v>
+        <v>1692003600</v>
       </c>
       <c r="B342" t="s">
         <v>334</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>1692018000</v>
+        <v>1692007200</v>
       </c>
       <c r="B343" t="s">
         <v>335</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>1691920800</v>
+        <v>1691910000</v>
       </c>
       <c r="B344" t="s">
         <v>308</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>1691924400</v>
+        <v>1691913600</v>
       </c>
       <c r="B345" t="s">
         <v>309</v>
@@ -13165,7 +13165,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>1691942400</v>
+        <v>1691931600</v>
       </c>
       <c r="B346" t="s">
         <v>314</v>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>1691992800</v>
+        <v>1691982000</v>
       </c>
       <c r="B347" t="s">
         <v>328</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>1692021600</v>
+        <v>1692010800</v>
       </c>
       <c r="B348" t="s">
         <v>336</v>
@@ -13261,7 +13261,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>1692025200</v>
+        <v>1692014400</v>
       </c>
       <c r="B349" t="s">
         <v>337</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>1692028800</v>
+        <v>1692018000</v>
       </c>
       <c r="B350" t="s">
         <v>338</v>
@@ -13325,7 +13325,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>1692032400</v>
+        <v>1692021600</v>
       </c>
       <c r="B351" t="s">
         <v>339</v>
@@ -13357,7 +13357,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>1692036000</v>
+        <v>1692025200</v>
       </c>
       <c r="B352" t="s">
         <v>340</v>
@@ -13389,7 +13389,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
-        <v>1692039600</v>
+        <v>1692028800</v>
       </c>
       <c r="B353" t="s">
         <v>341</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354">
-        <v>1692043200</v>
+        <v>1692032400</v>
       </c>
       <c r="B354" t="s">
         <v>342</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355">
-        <v>1692046800</v>
+        <v>1692036000</v>
       </c>
       <c r="B355" t="s">
         <v>343</v>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356">
-        <v>1692050400</v>
+        <v>1692039600</v>
       </c>
       <c r="B356" t="s">
         <v>344</v>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357">
-        <v>1692054000</v>
+        <v>1692043200</v>
       </c>
       <c r="B357" t="s">
         <v>345</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358">
-        <v>1692057600</v>
+        <v>1692046800</v>
       </c>
       <c r="B358" t="s">
         <v>346</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359">
-        <v>1692061200</v>
+        <v>1692050400</v>
       </c>
       <c r="B359" t="s">
         <v>347</v>
@@ -13613,7 +13613,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360">
-        <v>1692064800</v>
+        <v>1692054000</v>
       </c>
       <c r="B360" t="s">
         <v>348</v>
@@ -13645,7 +13645,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361">
-        <v>1692068400</v>
+        <v>1692057600</v>
       </c>
       <c r="B361" t="s">
         <v>349</v>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362">
-        <v>1692072000</v>
+        <v>1692061200</v>
       </c>
       <c r="B362" t="s">
         <v>350</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363">
-        <v>1692075600</v>
+        <v>1692064800</v>
       </c>
       <c r="B363" t="s">
         <v>351</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364">
-        <v>1692079200</v>
+        <v>1692068400</v>
       </c>
       <c r="B364" t="s">
         <v>352</v>
@@ -13773,7 +13773,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365">
-        <v>1692082800</v>
+        <v>1692072000</v>
       </c>
       <c r="B365" t="s">
         <v>353</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366">
-        <v>1692086400</v>
+        <v>1692075600</v>
       </c>
       <c r="B366" t="s">
         <v>354</v>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367">
-        <v>1692090000</v>
+        <v>1692079200</v>
       </c>
       <c r="B367" t="s">
         <v>355</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368">
-        <v>1692093600</v>
+        <v>1692082800</v>
       </c>
       <c r="B368" t="s">
         <v>356</v>
@@ -13901,7 +13901,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1692097200</v>
+        <v>1692086400</v>
       </c>
       <c r="B369" t="s">
         <v>357</v>
@@ -13933,7 +13933,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1692100800</v>
+        <v>1692090000</v>
       </c>
       <c r="B370" t="s">
         <v>358</v>
@@ -13965,7 +13965,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1692104400</v>
+        <v>1692093600</v>
       </c>
       <c r="B371" t="s">
         <v>359</v>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1692108000</v>
+        <v>1692097200</v>
       </c>
       <c r="B372" t="s">
         <v>360</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1692111600</v>
+        <v>1692100800</v>
       </c>
       <c r="B373" t="s">
         <v>361</v>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1692115200</v>
+        <v>1692104400</v>
       </c>
       <c r="B374" t="s">
         <v>362</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1692118800</v>
+        <v>1692108000</v>
       </c>
       <c r="B375" t="s">
         <v>363</v>
@@ -14125,7 +14125,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1692122400</v>
+        <v>1692111600</v>
       </c>
       <c r="B376" t="s">
         <v>364</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1692126000</v>
+        <v>1692115200</v>
       </c>
       <c r="B377" t="s">
         <v>365</v>
@@ -14189,7 +14189,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1692129600</v>
+        <v>1692118800</v>
       </c>
       <c r="B378" t="s">
         <v>366</v>
@@ -14221,7 +14221,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1692133200</v>
+        <v>1692122400</v>
       </c>
       <c r="B379" t="s">
         <v>367</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1692136800</v>
+        <v>1692126000</v>
       </c>
       <c r="B380" t="s">
         <v>368</v>
@@ -14285,7 +14285,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1692140400</v>
+        <v>1692129600</v>
       </c>
       <c r="B381" t="s">
         <v>369</v>
@@ -14317,7 +14317,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1692144000</v>
+        <v>1692133200</v>
       </c>
       <c r="B382" t="s">
         <v>370</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1692147600</v>
+        <v>1692136800</v>
       </c>
       <c r="B383" t="s">
         <v>371</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1692151200</v>
+        <v>1692140400</v>
       </c>
       <c r="B384" t="s">
         <v>372</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1692154800</v>
+        <v>1692144000</v>
       </c>
       <c r="B385" t="s">
         <v>373</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1692158400</v>
+        <v>1692147600</v>
       </c>
       <c r="B386" t="s">
         <v>374</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1692162000</v>
+        <v>1692151200</v>
       </c>
       <c r="B387" t="s">
         <v>375</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1692165600</v>
+        <v>1692154800</v>
       </c>
       <c r="B388" t="s">
         <v>376</v>
@@ -14541,7 +14541,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1692169200</v>
+        <v>1692158400</v>
       </c>
       <c r="B389" t="s">
         <v>377</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1692172800</v>
+        <v>1692162000</v>
       </c>
       <c r="B390" t="s">
         <v>378</v>
@@ -14605,7 +14605,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1692176400</v>
+        <v>1692165600</v>
       </c>
       <c r="B391" t="s">
         <v>379</v>
@@ -14637,7 +14637,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1692180000</v>
+        <v>1692169200</v>
       </c>
       <c r="B392" t="s">
         <v>380</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1692183600</v>
+        <v>1692172800</v>
       </c>
       <c r="B393" t="s">
         <v>381</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1692187200</v>
+        <v>1692176400</v>
       </c>
       <c r="B394" t="s">
         <v>382</v>
@@ -14733,7 +14733,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1692190800</v>
+        <v>1692180000</v>
       </c>
       <c r="B395" t="s">
         <v>383</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1692194400</v>
+        <v>1692183600</v>
       </c>
       <c r="B396" t="s">
         <v>384</v>
@@ -14797,7 +14797,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1692198000</v>
+        <v>1692187200</v>
       </c>
       <c r="B397" t="s">
         <v>385</v>
@@ -14829,7 +14829,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1692201600</v>
+        <v>1692190800</v>
       </c>
       <c r="B398" t="s">
         <v>386</v>
@@ -14861,7 +14861,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1692205200</v>
+        <v>1692194400</v>
       </c>
       <c r="B399" t="s">
         <v>387</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1692208800</v>
+        <v>1692198000</v>
       </c>
       <c r="B400" t="s">
         <v>388</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1692212400</v>
+        <v>1692201600</v>
       </c>
       <c r="B401" t="s">
         <v>389</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1692216000</v>
+        <v>1692205200</v>
       </c>
       <c r="B402" t="s">
         <v>390</v>
@@ -14989,7 +14989,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1692219600</v>
+        <v>1692208800</v>
       </c>
       <c r="B403" t="s">
         <v>391</v>
@@ -15021,7 +15021,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1692219600</v>
+        <v>1692208800</v>
       </c>
       <c r="B404" t="s">
         <v>391</v>
@@ -15053,7 +15053,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1692223200</v>
+        <v>1692212400</v>
       </c>
       <c r="B405" t="s">
         <v>392</v>
@@ -15085,7 +15085,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1692226800</v>
+        <v>1692216000</v>
       </c>
       <c r="B406" t="s">
         <v>393</v>
@@ -15117,7 +15117,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1692230400</v>
+        <v>1692219600</v>
       </c>
       <c r="B407" t="s">
         <v>394</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1692234000</v>
+        <v>1692223200</v>
       </c>
       <c r="B408" t="s">
         <v>395</v>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1692237600</v>
+        <v>1692226800</v>
       </c>
       <c r="B409" t="s">
         <v>396</v>
@@ -15213,7 +15213,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1692241200</v>
+        <v>1692230400</v>
       </c>
       <c r="B410" t="s">
         <v>397</v>
@@ -15245,7 +15245,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1692244800</v>
+        <v>1692234000</v>
       </c>
       <c r="B411" t="s">
         <v>398</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1692248400</v>
+        <v>1692237600</v>
       </c>
       <c r="B412" t="s">
         <v>399</v>
@@ -15309,7 +15309,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1692252000</v>
+        <v>1692241200</v>
       </c>
       <c r="B413" t="s">
         <v>400</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1692255600</v>
+        <v>1692244800</v>
       </c>
       <c r="B414" t="s">
         <v>401</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1692259200</v>
+        <v>1692248400</v>
       </c>
       <c r="B415" t="s">
         <v>402</v>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1692262800</v>
+        <v>1692252000</v>
       </c>
       <c r="B416" t="s">
         <v>403</v>
@@ -15437,7 +15437,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1692111600</v>
+        <v>1692100800</v>
       </c>
       <c r="B417" t="s">
         <v>361</v>
@@ -15469,7 +15469,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1692115200</v>
+        <v>1692104400</v>
       </c>
       <c r="B418" t="s">
         <v>362</v>
@@ -15501,7 +15501,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1692122400</v>
+        <v>1692111600</v>
       </c>
       <c r="B419" t="s">
         <v>364</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1692183600</v>
+        <v>1692172800</v>
       </c>
       <c r="B420" t="s">
         <v>381</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1692266400</v>
+        <v>1692255600</v>
       </c>
       <c r="B421" t="s">
         <v>404</v>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1692270000</v>
+        <v>1692259200</v>
       </c>
       <c r="B422" t="s">
         <v>405</v>
@@ -15629,7 +15629,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1692273600</v>
+        <v>1692262800</v>
       </c>
       <c r="B423" t="s">
         <v>406</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1692277200</v>
+        <v>1692266400</v>
       </c>
       <c r="B424" t="s">
         <v>407</v>
@@ -15693,7 +15693,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1692280800</v>
+        <v>1692270000</v>
       </c>
       <c r="B425" t="s">
         <v>408</v>
@@ -15725,7 +15725,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1692280800</v>
+        <v>1692270000</v>
       </c>
       <c r="B426" t="s">
         <v>408</v>
@@ -15757,7 +15757,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1692284400</v>
+        <v>1692273600</v>
       </c>
       <c r="B427" t="s">
         <v>409</v>
@@ -15789,7 +15789,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1692288000</v>
+        <v>1692277200</v>
       </c>
       <c r="B428" t="s">
         <v>410</v>
@@ -15821,7 +15821,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1692291600</v>
+        <v>1692280800</v>
       </c>
       <c r="B429" t="s">
         <v>411</v>
@@ -15853,7 +15853,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1692295200</v>
+        <v>1692284400</v>
       </c>
       <c r="B430" t="s">
         <v>412</v>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1692298800</v>
+        <v>1692288000</v>
       </c>
       <c r="B431" t="s">
         <v>413</v>
@@ -15917,7 +15917,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1692302400</v>
+        <v>1692291600</v>
       </c>
       <c r="B432" t="s">
         <v>414</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1692306000</v>
+        <v>1692295200</v>
       </c>
       <c r="B433" t="s">
         <v>415</v>
@@ -15981,7 +15981,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1692309600</v>
+        <v>1692298800</v>
       </c>
       <c r="B434" t="s">
         <v>416</v>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1692313200</v>
+        <v>1692302400</v>
       </c>
       <c r="B435" t="s">
         <v>417</v>
@@ -16045,7 +16045,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1692316800</v>
+        <v>1692306000</v>
       </c>
       <c r="B436" t="s">
         <v>418</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1692320400</v>
+        <v>1692309600</v>
       </c>
       <c r="B437" t="s">
         <v>419</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1692324000</v>
+        <v>1692313200</v>
       </c>
       <c r="B438" t="s">
         <v>420</v>
@@ -16141,7 +16141,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1692327600</v>
+        <v>1692316800</v>
       </c>
       <c r="B439" t="s">
         <v>421</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1692331200</v>
+        <v>1692320400</v>
       </c>
       <c r="B440" t="s">
         <v>422</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1692334800</v>
+        <v>1692324000</v>
       </c>
       <c r="B441" t="s">
         <v>423</v>
@@ -16237,7 +16237,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1692338400</v>
+        <v>1692327600</v>
       </c>
       <c r="B442" t="s">
         <v>424</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1692342000</v>
+        <v>1692331200</v>
       </c>
       <c r="B443" t="s">
         <v>425</v>
@@ -16301,7 +16301,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1692345600</v>
+        <v>1692334800</v>
       </c>
       <c r="B444" t="s">
         <v>426</v>
@@ -16333,7 +16333,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1692349200</v>
+        <v>1692338400</v>
       </c>
       <c r="B445" t="s">
         <v>427</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1692352800</v>
+        <v>1692342000</v>
       </c>
       <c r="B446" t="s">
         <v>428</v>
@@ -16397,7 +16397,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1692356400</v>
+        <v>1692345600</v>
       </c>
       <c r="B447" t="s">
         <v>429</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1692360000</v>
+        <v>1692349200</v>
       </c>
       <c r="B448" t="s">
         <v>430</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1692363600</v>
+        <v>1692352800</v>
       </c>
       <c r="B449" t="s">
         <v>431</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1692367200</v>
+        <v>1692356400</v>
       </c>
       <c r="B450" t="s">
         <v>432</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1692370800</v>
+        <v>1692360000</v>
       </c>
       <c r="B451" t="s">
         <v>433</v>
@@ -16557,7 +16557,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1692374400</v>
+        <v>1692363600</v>
       </c>
       <c r="B452" t="s">
         <v>434</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1692378000</v>
+        <v>1692367200</v>
       </c>
       <c r="B453" t="s">
         <v>435</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1692381600</v>
+        <v>1692370800</v>
       </c>
       <c r="B454" t="s">
         <v>436</v>
@@ -16653,7 +16653,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1692385200</v>
+        <v>1692374400</v>
       </c>
       <c r="B455" t="s">
         <v>437</v>
@@ -16685,7 +16685,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1692388800</v>
+        <v>1692378000</v>
       </c>
       <c r="B456" t="s">
         <v>438</v>
@@ -16717,7 +16717,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1692392400</v>
+        <v>1692381600</v>
       </c>
       <c r="B457" t="s">
         <v>439</v>
@@ -16749,7 +16749,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1692392400</v>
+        <v>1692381600</v>
       </c>
       <c r="B458" t="s">
         <v>439</v>
@@ -16781,7 +16781,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1692396000</v>
+        <v>1692385200</v>
       </c>
       <c r="B459" t="s">
         <v>440</v>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1692399600</v>
+        <v>1692388800</v>
       </c>
       <c r="B460" t="s">
         <v>441</v>
@@ -16845,7 +16845,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1692403200</v>
+        <v>1692392400</v>
       </c>
       <c r="B461" t="s">
         <v>442</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1692406800</v>
+        <v>1692396000</v>
       </c>
       <c r="B462" t="s">
         <v>443</v>
@@ -16909,7 +16909,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1692410400</v>
+        <v>1692399600</v>
       </c>
       <c r="B463" t="s">
         <v>444</v>
@@ -16941,7 +16941,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1692414000</v>
+        <v>1692403200</v>
       </c>
       <c r="B464" t="s">
         <v>445</v>
@@ -16973,7 +16973,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1692417600</v>
+        <v>1692406800</v>
       </c>
       <c r="B465" t="s">
         <v>446</v>
@@ -17005,7 +17005,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1692421200</v>
+        <v>1692410400</v>
       </c>
       <c r="B466" t="s">
         <v>447</v>
@@ -17037,7 +17037,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1692424800</v>
+        <v>1692414000</v>
       </c>
       <c r="B467" t="s">
         <v>448</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1692428400</v>
+        <v>1692417600</v>
       </c>
       <c r="B468" t="s">
         <v>449</v>
@@ -17101,7 +17101,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1692432000</v>
+        <v>1692421200</v>
       </c>
       <c r="B469" t="s">
         <v>450</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1692435600</v>
+        <v>1692424800</v>
       </c>
       <c r="B470" t="s">
         <v>451</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1692439200</v>
+        <v>1692428400</v>
       </c>
       <c r="B471" t="s">
         <v>452</v>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1692442800</v>
+        <v>1692432000</v>
       </c>
       <c r="B472" t="s">
         <v>453</v>
@@ -17229,7 +17229,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1692446400</v>
+        <v>1692435600</v>
       </c>
       <c r="B473" t="s">
         <v>454</v>
@@ -17261,7 +17261,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1692450000</v>
+        <v>1692439200</v>
       </c>
       <c r="B474" t="s">
         <v>455</v>
@@ -17293,7 +17293,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1692453600</v>
+        <v>1692442800</v>
       </c>
       <c r="B475" t="s">
         <v>456</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1692457200</v>
+        <v>1692446400</v>
       </c>
       <c r="B476" t="s">
         <v>457</v>
@@ -17357,7 +17357,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1692460800</v>
+        <v>1692450000</v>
       </c>
       <c r="B477" t="s">
         <v>458</v>
@@ -17389,7 +17389,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1692464400</v>
+        <v>1692453600</v>
       </c>
       <c r="B478" t="s">
         <v>459</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1692468000</v>
+        <v>1692457200</v>
       </c>
       <c r="B479" t="s">
         <v>460</v>
@@ -17453,7 +17453,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1692471600</v>
+        <v>1692460800</v>
       </c>
       <c r="B480" t="s">
         <v>461</v>
@@ -17485,7 +17485,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1692475200</v>
+        <v>1692464400</v>
       </c>
       <c r="B481" t="s">
         <v>462</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1692478800</v>
+        <v>1692468000</v>
       </c>
       <c r="B482" t="s">
         <v>463</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1692478800</v>
+        <v>1692468000</v>
       </c>
       <c r="B483" t="s">
         <v>463</v>
@@ -17581,7 +17581,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1692482400</v>
+        <v>1692471600</v>
       </c>
       <c r="B484" t="s">
         <v>464</v>
@@ -17613,7 +17613,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1692486000</v>
+        <v>1692475200</v>
       </c>
       <c r="B485" t="s">
         <v>465</v>
@@ -17645,7 +17645,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1692489600</v>
+        <v>1692478800</v>
       </c>
       <c r="B486" t="s">
         <v>466</v>
@@ -17677,7 +17677,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1692489600</v>
+        <v>1692478800</v>
       </c>
       <c r="B487" t="s">
         <v>466</v>
@@ -17709,7 +17709,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1692493200</v>
+        <v>1692482400</v>
       </c>
       <c r="B488" t="s">
         <v>467</v>
@@ -17741,7 +17741,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1692496800</v>
+        <v>1692486000</v>
       </c>
       <c r="B489" t="s">
         <v>468</v>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1692496800</v>
+        <v>1692486000</v>
       </c>
       <c r="B490" t="s">
         <v>468</v>
@@ -17805,7 +17805,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1692500400</v>
+        <v>1692489600</v>
       </c>
       <c r="B491" t="s">
         <v>469</v>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1692500400</v>
+        <v>1692489600</v>
       </c>
       <c r="B492" t="s">
         <v>469</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1692504000</v>
+        <v>1692493200</v>
       </c>
       <c r="B493" t="s">
         <v>470</v>
@@ -17901,7 +17901,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1692504000</v>
+        <v>1692493200</v>
       </c>
       <c r="B494" t="s">
         <v>470</v>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1692507600</v>
+        <v>1692496800</v>
       </c>
       <c r="B495" t="s">
         <v>471</v>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1692507600</v>
+        <v>1692496800</v>
       </c>
       <c r="B496" t="s">
         <v>471</v>
@@ -17997,7 +17997,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1692511200</v>
+        <v>1692500400</v>
       </c>
       <c r="B497" t="s">
         <v>472</v>
@@ -18029,7 +18029,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1692511200</v>
+        <v>1692500400</v>
       </c>
       <c r="B498" t="s">
         <v>472</v>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1692514800</v>
+        <v>1692504000</v>
       </c>
       <c r="B499" t="s">
         <v>473</v>
@@ -18093,7 +18093,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1692518400</v>
+        <v>1692507600</v>
       </c>
       <c r="B500" t="s">
         <v>474</v>
@@ -18125,7 +18125,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1692522000</v>
+        <v>1692511200</v>
       </c>
       <c r="B501" t="s">
         <v>475</v>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1692525600</v>
+        <v>1692514800</v>
       </c>
       <c r="B502" t="s">
         <v>476</v>
@@ -18189,7 +18189,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1692529200</v>
+        <v>1692518400</v>
       </c>
       <c r="B503" t="s">
         <v>477</v>
@@ -18221,7 +18221,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1692532800</v>
+        <v>1692522000</v>
       </c>
       <c r="B504" t="s">
         <v>478</v>
@@ -18253,7 +18253,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1692536400</v>
+        <v>1692525600</v>
       </c>
       <c r="B505" t="s">
         <v>479</v>
@@ -18285,7 +18285,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1692540000</v>
+        <v>1692529200</v>
       </c>
       <c r="B506" t="s">
         <v>480</v>
@@ -18317,7 +18317,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1692543600</v>
+        <v>1692532800</v>
       </c>
       <c r="B507" t="s">
         <v>481</v>
@@ -18349,7 +18349,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1692547200</v>
+        <v>1692536400</v>
       </c>
       <c r="B508" t="s">
         <v>482</v>
@@ -18381,7 +18381,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1692550800</v>
+        <v>1692540000</v>
       </c>
       <c r="B509" t="s">
         <v>483</v>
@@ -18413,7 +18413,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1692554400</v>
+        <v>1692543600</v>
       </c>
       <c r="B510" t="s">
         <v>484</v>
@@ -18445,7 +18445,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1692558000</v>
+        <v>1692547200</v>
       </c>
       <c r="B511" t="s">
         <v>485</v>
@@ -18477,7 +18477,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1692561600</v>
+        <v>1692550800</v>
       </c>
       <c r="B512" t="s">
         <v>486</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1692565200</v>
+        <v>1692554400</v>
       </c>
       <c r="B513" t="s">
         <v>487</v>
@@ -18541,7 +18541,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1692568800</v>
+        <v>1692558000</v>
       </c>
       <c r="B514" t="s">
         <v>488</v>
@@ -18573,7 +18573,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1692572400</v>
+        <v>1692561600</v>
       </c>
       <c r="B515" t="s">
         <v>489</v>
@@ -18605,7 +18605,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1692576000</v>
+        <v>1692565200</v>
       </c>
       <c r="B516" t="s">
         <v>490</v>
@@ -18637,7 +18637,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1692579600</v>
+        <v>1692568800</v>
       </c>
       <c r="B517" t="s">
         <v>491</v>
@@ -18669,7 +18669,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1692583200</v>
+        <v>1692572400</v>
       </c>
       <c r="B518" t="s">
         <v>492</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1692586800</v>
+        <v>1692576000</v>
       </c>
       <c r="B519" t="s">
         <v>493</v>
@@ -18733,7 +18733,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1692590400</v>
+        <v>1692579600</v>
       </c>
       <c r="B520" t="s">
         <v>494</v>
@@ -18765,7 +18765,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1692594000</v>
+        <v>1692583200</v>
       </c>
       <c r="B521" t="s">
         <v>495</v>
@@ -18797,7 +18797,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1692597600</v>
+        <v>1692586800</v>
       </c>
       <c r="B522" t="s">
         <v>496</v>
@@ -18829,7 +18829,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1692601200</v>
+        <v>1692590400</v>
       </c>
       <c r="B523" t="s">
         <v>497</v>
@@ -18861,7 +18861,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1692604800</v>
+        <v>1692594000</v>
       </c>
       <c r="B524" t="s">
         <v>498</v>
@@ -18893,7 +18893,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1692608400</v>
+        <v>1692597600</v>
       </c>
       <c r="B525" t="s">
         <v>499</v>
@@ -18925,7 +18925,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1692612000</v>
+        <v>1692601200</v>
       </c>
       <c r="B526" t="s">
         <v>500</v>
@@ -18957,7 +18957,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1692615600</v>
+        <v>1692604800</v>
       </c>
       <c r="B527" t="s">
         <v>501</v>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1692619200</v>
+        <v>1692608400</v>
       </c>
       <c r="B528" t="s">
         <v>502</v>
@@ -19021,7 +19021,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1692622800</v>
+        <v>1692612000</v>
       </c>
       <c r="B529" t="s">
         <v>503</v>
@@ -19053,7 +19053,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1692532800</v>
+        <v>1692522000</v>
       </c>
       <c r="B530" t="s">
         <v>478</v>
@@ -19085,7 +19085,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1692547200</v>
+        <v>1692536400</v>
       </c>
       <c r="B531" t="s">
         <v>482</v>
@@ -19117,7 +19117,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1692565200</v>
+        <v>1692554400</v>
       </c>
       <c r="B532" t="s">
         <v>487</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1692568800</v>
+        <v>1692558000</v>
       </c>
       <c r="B533" t="s">
         <v>488</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1692576000</v>
+        <v>1692565200</v>
       </c>
       <c r="B534" t="s">
         <v>490</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1692579600</v>
+        <v>1692568800</v>
       </c>
       <c r="B535" t="s">
         <v>491</v>
@@ -19245,7 +19245,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1692586800</v>
+        <v>1692576000</v>
       </c>
       <c r="B536" t="s">
         <v>493</v>
@@ -19277,7 +19277,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1692590400</v>
+        <v>1692579600</v>
       </c>
       <c r="B537" t="s">
         <v>494</v>
@@ -19309,7 +19309,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1692615600</v>
+        <v>1692604800</v>
       </c>
       <c r="B538" t="s">
         <v>501</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1692619200</v>
+        <v>1692608400</v>
       </c>
       <c r="B539" t="s">
         <v>502</v>
@@ -19373,7 +19373,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1692626400</v>
+        <v>1692615600</v>
       </c>
       <c r="B540" t="s">
         <v>504</v>
@@ -19405,7 +19405,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1692630000</v>
+        <v>1692619200</v>
       </c>
       <c r="B541" t="s">
         <v>505</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1692633600</v>
+        <v>1692622800</v>
       </c>
       <c r="B542" t="s">
         <v>506</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1692637200</v>
+        <v>1692626400</v>
       </c>
       <c r="B543" t="s">
         <v>507</v>
@@ -19501,7 +19501,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1693260000</v>
+        <v>1693249200</v>
       </c>
       <c r="B544" t="s">
         <v>508</v>
@@ -19530,7 +19530,7 @@
     </row>
     <row r="545" spans="1:9">
       <c r="A545">
-        <v>1693263600</v>
+        <v>1693252800</v>
       </c>
       <c r="B545" t="s">
         <v>509</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="546" spans="1:9">
       <c r="A546">
-        <v>1693267200</v>
+        <v>1693256400</v>
       </c>
       <c r="B546" t="s">
         <v>510</v>
@@ -19588,7 +19588,7 @@
     </row>
     <row r="547" spans="1:9">
       <c r="A547">
-        <v>1693270800</v>
+        <v>1693260000</v>
       </c>
       <c r="B547" t="s">
         <v>511</v>
@@ -19617,7 +19617,7 @@
     </row>
     <row r="548" spans="1:9">
       <c r="A548">
-        <v>1693274400</v>
+        <v>1693263600</v>
       </c>
       <c r="B548" t="s">
         <v>512</v>
@@ -19646,7 +19646,7 @@
     </row>
     <row r="549" spans="1:9">
       <c r="A549">
-        <v>1693278000</v>
+        <v>1693267200</v>
       </c>
       <c r="B549" t="s">
         <v>513</v>
@@ -19675,7 +19675,7 @@
     </row>
     <row r="550" spans="1:9">
       <c r="A550">
-        <v>1693281600</v>
+        <v>1693270800</v>
       </c>
       <c r="B550" t="s">
         <v>514</v>
@@ -19704,7 +19704,7 @@
     </row>
     <row r="551" spans="1:9">
       <c r="A551">
-        <v>1693285200</v>
+        <v>1693274400</v>
       </c>
       <c r="B551" t="s">
         <v>515</v>
@@ -19733,7 +19733,7 @@
     </row>
     <row r="552" spans="1:9">
       <c r="A552">
-        <v>1693288800</v>
+        <v>1693278000</v>
       </c>
       <c r="B552" t="s">
         <v>516</v>
@@ -19762,7 +19762,7 @@
     </row>
     <row r="553" spans="1:9">
       <c r="A553">
-        <v>1693292400</v>
+        <v>1693281600</v>
       </c>
       <c r="B553" t="s">
         <v>517</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="554" spans="1:9">
       <c r="A554">
-        <v>1693296000</v>
+        <v>1693285200</v>
       </c>
       <c r="B554" t="s">
         <v>518</v>
@@ -19820,7 +19820,7 @@
     </row>
     <row r="555" spans="1:9">
       <c r="A555">
-        <v>1693299600</v>
+        <v>1693288800</v>
       </c>
       <c r="B555" t="s">
         <v>519</v>
@@ -19849,7 +19849,7 @@
     </row>
     <row r="556" spans="1:9">
       <c r="A556">
-        <v>1693303200</v>
+        <v>1693292400</v>
       </c>
       <c r="B556" t="s">
         <v>520</v>
@@ -19878,7 +19878,7 @@
     </row>
     <row r="557" spans="1:9">
       <c r="A557">
-        <v>1693306800</v>
+        <v>1693296000</v>
       </c>
       <c r="B557" t="s">
         <v>521</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="558" spans="1:9">
       <c r="A558">
-        <v>1693310400</v>
+        <v>1693299600</v>
       </c>
       <c r="B558" t="s">
         <v>522</v>
@@ -19936,7 +19936,7 @@
     </row>
     <row r="559" spans="1:9">
       <c r="A559">
-        <v>1693314000</v>
+        <v>1693303200</v>
       </c>
       <c r="B559" t="s">
         <v>523</v>
@@ -19965,7 +19965,7 @@
     </row>
     <row r="560" spans="1:9">
       <c r="A560">
-        <v>1693317600</v>
+        <v>1693306800</v>
       </c>
       <c r="B560" t="s">
         <v>524</v>
@@ -19994,7 +19994,7 @@
     </row>
     <row r="561" spans="1:9">
       <c r="A561">
-        <v>1693321200</v>
+        <v>1693310400</v>
       </c>
       <c r="B561" t="s">
         <v>525</v>
@@ -20023,7 +20023,7 @@
     </row>
     <row r="562" spans="1:9">
       <c r="A562">
-        <v>1693324800</v>
+        <v>1693314000</v>
       </c>
       <c r="B562" t="s">
         <v>526</v>
@@ -20052,7 +20052,7 @@
     </row>
     <row r="563" spans="1:9">
       <c r="A563">
-        <v>1693328400</v>
+        <v>1693317600</v>
       </c>
       <c r="B563" t="s">
         <v>527</v>
@@ -20081,7 +20081,7 @@
     </row>
     <row r="564" spans="1:9">
       <c r="A564">
-        <v>1693332000</v>
+        <v>1693321200</v>
       </c>
       <c r="B564" t="s">
         <v>528</v>
@@ -20110,7 +20110,7 @@
     </row>
     <row r="565" spans="1:9">
       <c r="A565">
-        <v>1693335600</v>
+        <v>1693324800</v>
       </c>
       <c r="B565" t="s">
         <v>529</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="566" spans="1:9">
       <c r="A566">
-        <v>1693339200</v>
+        <v>1693328400</v>
       </c>
       <c r="B566" t="s">
         <v>530</v>
@@ -20168,7 +20168,7 @@
     </row>
     <row r="567" spans="1:9">
       <c r="A567">
-        <v>1693342800</v>
+        <v>1693332000</v>
       </c>
       <c r="B567" t="s">
         <v>531</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="568" spans="1:9">
       <c r="A568">
-        <v>1693346400</v>
+        <v>1693335600</v>
       </c>
       <c r="B568" t="s">
         <v>532</v>
@@ -20226,7 +20226,7 @@
     </row>
     <row r="569" spans="1:9">
       <c r="A569">
-        <v>1693350000</v>
+        <v>1693339200</v>
       </c>
       <c r="B569" t="s">
         <v>533</v>
@@ -20255,7 +20255,7 @@
     </row>
     <row r="570" spans="1:9">
       <c r="A570">
-        <v>1693353600</v>
+        <v>1693342800</v>
       </c>
       <c r="B570" t="s">
         <v>534</v>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="571" spans="1:9">
       <c r="A571">
-        <v>1693357200</v>
+        <v>1693346400</v>
       </c>
       <c r="B571" t="s">
         <v>535</v>
@@ -20313,7 +20313,7 @@
     </row>
     <row r="572" spans="1:9">
       <c r="A572">
-        <v>1693360800</v>
+        <v>1693350000</v>
       </c>
       <c r="B572" t="s">
         <v>536</v>
@@ -20342,7 +20342,7 @@
     </row>
     <row r="573" spans="1:9">
       <c r="A573">
-        <v>1693364400</v>
+        <v>1693353600</v>
       </c>
       <c r="B573" t="s">
         <v>537</v>
@@ -20371,7 +20371,7 @@
     </row>
     <row r="574" spans="1:9">
       <c r="A574">
-        <v>1693368000</v>
+        <v>1693357200</v>
       </c>
       <c r="B574" t="s">
         <v>538</v>
@@ -20400,7 +20400,7 @@
     </row>
     <row r="575" spans="1:9">
       <c r="A575">
-        <v>1693371600</v>
+        <v>1693360800</v>
       </c>
       <c r="B575" t="s">
         <v>539</v>
@@ -20429,7 +20429,7 @@
     </row>
     <row r="576" spans="1:9">
       <c r="A576">
-        <v>1693375200</v>
+        <v>1693364400</v>
       </c>
       <c r="B576" t="s">
         <v>540</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="577" spans="1:9">
       <c r="A577">
-        <v>1693378800</v>
+        <v>1693368000</v>
       </c>
       <c r="B577" t="s">
         <v>541</v>
@@ -20487,7 +20487,7 @@
     </row>
     <row r="578" spans="1:9">
       <c r="A578">
-        <v>1693382400</v>
+        <v>1693371600</v>
       </c>
       <c r="B578" t="s">
         <v>542</v>
@@ -20516,7 +20516,7 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579">
-        <v>1693386000</v>
+        <v>1693375200</v>
       </c>
       <c r="B579" t="s">
         <v>543</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="580" spans="1:9">
       <c r="A580">
-        <v>1693389600</v>
+        <v>1693378800</v>
       </c>
       <c r="B580" t="s">
         <v>544</v>
@@ -20574,7 +20574,7 @@
     </row>
     <row r="581" spans="1:9">
       <c r="A581">
-        <v>1693393200</v>
+        <v>1693382400</v>
       </c>
       <c r="B581" t="s">
         <v>545</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="582" spans="1:9">
       <c r="A582">
-        <v>1693396800</v>
+        <v>1693386000</v>
       </c>
       <c r="B582" t="s">
         <v>546</v>
@@ -20632,7 +20632,7 @@
     </row>
     <row r="583" spans="1:9">
       <c r="A583">
-        <v>1693400400</v>
+        <v>1693389600</v>
       </c>
       <c r="B583" t="s">
         <v>547</v>
@@ -20661,7 +20661,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584">
-        <v>1693404000</v>
+        <v>1693393200</v>
       </c>
       <c r="B584" t="s">
         <v>548</v>
@@ -20690,7 +20690,7 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585">
-        <v>1693407600</v>
+        <v>1693396800</v>
       </c>
       <c r="B585" t="s">
         <v>549</v>
@@ -20719,7 +20719,7 @@
     </row>
     <row r="586" spans="1:9">
       <c r="A586">
-        <v>1693411200</v>
+        <v>1693400400</v>
       </c>
       <c r="B586" t="s">
         <v>550</v>
@@ -20748,7 +20748,7 @@
     </row>
     <row r="587" spans="1:9">
       <c r="A587">
-        <v>1693414800</v>
+        <v>1693404000</v>
       </c>
       <c r="B587" t="s">
         <v>551</v>
@@ -20777,7 +20777,7 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588">
-        <v>1693418400</v>
+        <v>1693407600</v>
       </c>
       <c r="B588" t="s">
         <v>552</v>
@@ -20806,7 +20806,7 @@
     </row>
     <row r="589" spans="1:9">
       <c r="A589">
-        <v>1693422000</v>
+        <v>1693411200</v>
       </c>
       <c r="B589" t="s">
         <v>553</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590">
-        <v>1693425600</v>
+        <v>1693414800</v>
       </c>
       <c r="B590" t="s">
         <v>554</v>
@@ -20864,7 +20864,7 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591">
-        <v>1693429200</v>
+        <v>1693418400</v>
       </c>
       <c r="B591" t="s">
         <v>555</v>
@@ -20893,7 +20893,7 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592">
-        <v>1693432800</v>
+        <v>1693422000</v>
       </c>
       <c r="B592" t="s">
         <v>556</v>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="593" spans="1:9">
       <c r="A593">
-        <v>1693436400</v>
+        <v>1693425600</v>
       </c>
       <c r="B593" t="s">
         <v>557</v>
@@ -20951,7 +20951,7 @@
     </row>
     <row r="594" spans="1:9">
       <c r="A594">
-        <v>1693440000</v>
+        <v>1693429200</v>
       </c>
       <c r="B594" t="s">
         <v>558</v>
@@ -20980,7 +20980,7 @@
     </row>
     <row r="595" spans="1:9">
       <c r="A595">
-        <v>1693443600</v>
+        <v>1693432800</v>
       </c>
       <c r="B595" t="s">
         <v>559</v>
@@ -21009,7 +21009,7 @@
     </row>
     <row r="596" spans="1:9">
       <c r="A596">
-        <v>1693447200</v>
+        <v>1693436400</v>
       </c>
       <c r="B596" t="s">
         <v>560</v>
@@ -21038,7 +21038,7 @@
     </row>
     <row r="597" spans="1:9">
       <c r="A597">
-        <v>1693450800</v>
+        <v>1693440000</v>
       </c>
       <c r="B597" t="s">
         <v>561</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="598" spans="1:9">
       <c r="A598">
-        <v>1693454400</v>
+        <v>1693443600</v>
       </c>
       <c r="B598" t="s">
         <v>562</v>
@@ -21096,7 +21096,7 @@
     </row>
     <row r="599" spans="1:9">
       <c r="A599">
-        <v>1693458000</v>
+        <v>1693447200</v>
       </c>
       <c r="B599" t="s">
         <v>563</v>
@@ -21125,7 +21125,7 @@
     </row>
     <row r="600" spans="1:9">
       <c r="A600">
-        <v>1693461600</v>
+        <v>1693450800</v>
       </c>
       <c r="B600" t="s">
         <v>564</v>
@@ -21154,7 +21154,7 @@
     </row>
     <row r="601" spans="1:9">
       <c r="A601">
-        <v>1693465200</v>
+        <v>1693454400</v>
       </c>
       <c r="B601" t="s">
         <v>565</v>
@@ -21183,7 +21183,7 @@
     </row>
     <row r="602" spans="1:9">
       <c r="A602">
-        <v>1693468800</v>
+        <v>1693458000</v>
       </c>
       <c r="B602" t="s">
         <v>566</v>
@@ -21212,7 +21212,7 @@
     </row>
     <row r="603" spans="1:9">
       <c r="A603">
-        <v>1693472400</v>
+        <v>1693461600</v>
       </c>
       <c r="B603" t="s">
         <v>567</v>
@@ -21241,7 +21241,7 @@
     </row>
     <row r="604" spans="1:9">
       <c r="A604">
-        <v>1693476000</v>
+        <v>1693465200</v>
       </c>
       <c r="B604" t="s">
         <v>568</v>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="605" spans="1:9">
       <c r="A605">
-        <v>1693479600</v>
+        <v>1693468800</v>
       </c>
       <c r="B605" t="s">
         <v>569</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="606" spans="1:9">
       <c r="A606">
-        <v>1693483200</v>
+        <v>1693472400</v>
       </c>
       <c r="B606" t="s">
         <v>570</v>
@@ -21328,7 +21328,7 @@
     </row>
     <row r="607" spans="1:9">
       <c r="A607">
-        <v>1693486800</v>
+        <v>1693476000</v>
       </c>
       <c r="B607" t="s">
         <v>571</v>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="608" spans="1:9">
       <c r="A608">
-        <v>1693490400</v>
+        <v>1693479600</v>
       </c>
       <c r="B608" t="s">
         <v>572</v>
@@ -21386,7 +21386,7 @@
     </row>
     <row r="609" spans="1:9">
       <c r="A609">
-        <v>1693494000</v>
+        <v>1693483200</v>
       </c>
       <c r="B609" t="s">
         <v>573</v>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="610" spans="1:9">
       <c r="A610">
-        <v>1693497600</v>
+        <v>1693486800</v>
       </c>
       <c r="B610" t="s">
         <v>574</v>
@@ -21444,7 +21444,7 @@
     </row>
     <row r="611" spans="1:9">
       <c r="A611">
-        <v>1693501200</v>
+        <v>1693490400</v>
       </c>
       <c r="B611" t="s">
         <v>575</v>
@@ -21473,7 +21473,7 @@
     </row>
     <row r="612" spans="1:9">
       <c r="A612">
-        <v>1693501200</v>
+        <v>1693490400</v>
       </c>
       <c r="B612" t="s">
         <v>575</v>
@@ -21502,7 +21502,7 @@
     </row>
     <row r="613" spans="1:9">
       <c r="A613">
-        <v>1693504800</v>
+        <v>1693494000</v>
       </c>
       <c r="B613" t="s">
         <v>576</v>
@@ -21531,7 +21531,7 @@
     </row>
     <row r="614" spans="1:9">
       <c r="A614">
-        <v>1693508400</v>
+        <v>1693497600</v>
       </c>
       <c r="B614" t="s">
         <v>577</v>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="615" spans="1:9">
       <c r="A615">
-        <v>1693512000</v>
+        <v>1693501200</v>
       </c>
       <c r="B615" t="s">
         <v>578</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="616" spans="1:9">
       <c r="A616">
-        <v>1693515600</v>
+        <v>1693504800</v>
       </c>
       <c r="B616" t="s">
         <v>579</v>
@@ -21618,7 +21618,7 @@
     </row>
     <row r="617" spans="1:9">
       <c r="A617">
-        <v>1693515600</v>
+        <v>1693504800</v>
       </c>
       <c r="B617" t="s">
         <v>579</v>
@@ -21647,7 +21647,7 @@
     </row>
     <row r="618" spans="1:9">
       <c r="A618">
-        <v>1693519200</v>
+        <v>1693508400</v>
       </c>
       <c r="B618" t="s">
         <v>580</v>
@@ -21676,7 +21676,7 @@
     </row>
     <row r="619" spans="1:9">
       <c r="A619">
-        <v>1693522800</v>
+        <v>1693512000</v>
       </c>
       <c r="B619" t="s">
         <v>581</v>
@@ -21705,7 +21705,7 @@
     </row>
     <row r="620" spans="1:9">
       <c r="A620">
-        <v>1693425600</v>
+        <v>1693414800</v>
       </c>
       <c r="B620" t="s">
         <v>554</v>
@@ -21731,7 +21731,7 @@
     </row>
     <row r="621" spans="1:9">
       <c r="A621">
-        <v>1693429200</v>
+        <v>1693418400</v>
       </c>
       <c r="B621" t="s">
         <v>555</v>
@@ -21757,7 +21757,7 @@
     </row>
     <row r="622" spans="1:9">
       <c r="A622">
-        <v>1693432800</v>
+        <v>1693422000</v>
       </c>
       <c r="B622" t="s">
         <v>556</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="623" spans="1:9">
       <c r="A623">
-        <v>1693436400</v>
+        <v>1693425600</v>
       </c>
       <c r="B623" t="s">
         <v>557</v>
@@ -21809,7 +21809,7 @@
     </row>
     <row r="624" spans="1:9">
       <c r="A624">
-        <v>1693440000</v>
+        <v>1693429200</v>
       </c>
       <c r="B624" t="s">
         <v>558</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="625" spans="1:9">
       <c r="A625">
-        <v>1693443600</v>
+        <v>1693432800</v>
       </c>
       <c r="B625" t="s">
         <v>559</v>
@@ -21861,7 +21861,7 @@
     </row>
     <row r="626" spans="1:9">
       <c r="A626">
-        <v>1693447200</v>
+        <v>1693436400</v>
       </c>
       <c r="B626" t="s">
         <v>560</v>
@@ -21887,7 +21887,7 @@
     </row>
     <row r="627" spans="1:9">
       <c r="A627">
-        <v>1693450800</v>
+        <v>1693440000</v>
       </c>
       <c r="B627" t="s">
         <v>561</v>
@@ -21913,7 +21913,7 @@
     </row>
     <row r="628" spans="1:9">
       <c r="A628">
-        <v>1693454400</v>
+        <v>1693443600</v>
       </c>
       <c r="B628" t="s">
         <v>562</v>
@@ -21939,7 +21939,7 @@
     </row>
     <row r="629" spans="1:9">
       <c r="A629">
-        <v>1693458000</v>
+        <v>1693447200</v>
       </c>
       <c r="B629" t="s">
         <v>563</v>
@@ -21965,7 +21965,7 @@
     </row>
     <row r="630" spans="1:9">
       <c r="A630">
-        <v>1693461600</v>
+        <v>1693450800</v>
       </c>
       <c r="B630" t="s">
         <v>564</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="631" spans="1:9">
       <c r="A631">
-        <v>1693465200</v>
+        <v>1693454400</v>
       </c>
       <c r="B631" t="s">
         <v>565</v>
@@ -22017,7 +22017,7 @@
     </row>
     <row r="632" spans="1:9">
       <c r="A632">
-        <v>1693468800</v>
+        <v>1693458000</v>
       </c>
       <c r="B632" t="s">
         <v>566</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="633" spans="1:9">
       <c r="A633">
-        <v>1693472400</v>
+        <v>1693461600</v>
       </c>
       <c r="B633" t="s">
         <v>567</v>
@@ -22069,7 +22069,7 @@
     </row>
     <row r="634" spans="1:9">
       <c r="A634">
-        <v>1693476000</v>
+        <v>1693465200</v>
       </c>
       <c r="B634" t="s">
         <v>568</v>
@@ -22095,7 +22095,7 @@
     </row>
     <row r="635" spans="1:9">
       <c r="A635">
-        <v>1693479600</v>
+        <v>1693468800</v>
       </c>
       <c r="B635" t="s">
         <v>569</v>
@@ -22121,7 +22121,7 @@
     </row>
     <row r="636" spans="1:9">
       <c r="A636">
-        <v>1693483200</v>
+        <v>1693472400</v>
       </c>
       <c r="B636" t="s">
         <v>570</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="637" spans="1:9">
       <c r="A637">
-        <v>1693486800</v>
+        <v>1693476000</v>
       </c>
       <c r="B637" t="s">
         <v>571</v>
@@ -22173,7 +22173,7 @@
     </row>
     <row r="638" spans="1:9">
       <c r="A638">
-        <v>1693490400</v>
+        <v>1693479600</v>
       </c>
       <c r="B638" t="s">
         <v>572</v>
@@ -22199,7 +22199,7 @@
     </row>
     <row r="639" spans="1:9">
       <c r="A639">
-        <v>1693494000</v>
+        <v>1693483200</v>
       </c>
       <c r="B639" t="s">
         <v>573</v>
@@ -22225,7 +22225,7 @@
     </row>
     <row r="640" spans="1:9">
       <c r="A640">
-        <v>1693497600</v>
+        <v>1693486800</v>
       </c>
       <c r="B640" t="s">
         <v>574</v>
@@ -22251,7 +22251,7 @@
     </row>
     <row r="641" spans="1:9">
       <c r="A641">
-        <v>1693501200</v>
+        <v>1693490400</v>
       </c>
       <c r="B641" t="s">
         <v>575</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="642" spans="1:9">
       <c r="A642">
-        <v>1693504800</v>
+        <v>1693494000</v>
       </c>
       <c r="B642" t="s">
         <v>576</v>
@@ -22303,7 +22303,7 @@
     </row>
     <row r="643" spans="1:9">
       <c r="A643">
-        <v>1693508400</v>
+        <v>1693497600</v>
       </c>
       <c r="B643" t="s">
         <v>577</v>
@@ -22329,7 +22329,7 @@
     </row>
     <row r="644" spans="1:9">
       <c r="A644">
-        <v>1693512000</v>
+        <v>1693501200</v>
       </c>
       <c r="B644" t="s">
         <v>578</v>
@@ -22355,7 +22355,7 @@
     </row>
     <row r="645" spans="1:9">
       <c r="A645">
-        <v>1693515600</v>
+        <v>1693504800</v>
       </c>
       <c r="B645" t="s">
         <v>579</v>
@@ -22381,7 +22381,7 @@
     </row>
     <row r="646" spans="1:9">
       <c r="A646">
-        <v>1693519200</v>
+        <v>1693508400</v>
       </c>
       <c r="B646" t="s">
         <v>580</v>
@@ -22407,7 +22407,7 @@
     </row>
     <row r="647" spans="1:9">
       <c r="A647">
-        <v>1693522800</v>
+        <v>1693512000</v>
       </c>
       <c r="B647" t="s">
         <v>581</v>
